--- a/pred_ohlcv/54_21/2019-10-27 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LBA ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>913223.4072315847</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>860312.3423315847</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>865299.2653315846</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>808640.1456315846</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>598464.5284315846</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>640764.5343315846</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>643264.5343315846</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>643264.5343315846</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>631854.5343315846</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>628976.0704315846</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>628976.0704315846</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>623398.7360315846</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>174180.5588241311</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>174180.5588241311</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>47245.53002413112</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 LBA ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>913223.4072315847</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>865299.2653315846</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>865299.2653315846</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>865299.2653315846</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>808640.1456315846</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>598464.5284315846</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>640764.5343315846</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>640764.5343315846</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>640764.5343315846</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>643264.5343315846</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>643264.5343315846</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>628976.0704315846</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>628976.0704315846</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>623398.7360315846</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>174180.5588241311</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>174180.5588241311</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-19157.20427586886</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>63785.71992413112</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>47245.53002413112</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
